--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學4A.xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學4A.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29177" windowHeight="8451"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則邏輯相同 skill 盡量沿用 現在是數學4A 以上是數學" sheetId="1" r:id="rId4"/>
+    <sheet name="規則邏輯相同 skill 盡量沿用 現在是數學4A 以上是數學" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -355,17 +363,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -374,36 +390,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -593,20 +616,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -643,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -655,16 +683,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -672,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -684,16 +712,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -701,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -713,16 +741,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -730,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -742,16 +770,16 @@
         <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -759,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -771,16 +799,16 @@
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -788,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -800,16 +828,16 @@
         <v>23</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -817,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -829,16 +857,16 @@
         <v>23</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -846,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -858,16 +886,16 @@
         <v>26</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -875,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -887,16 +915,16 @@
         <v>28</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -904,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -916,16 +944,16 @@
         <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -933,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -945,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -962,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -974,16 +1002,16 @@
         <v>32</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -991,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1003,16 +1031,16 @@
         <v>32</v>
       </c>
       <c r="G14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1032,16 +1060,16 @@
         <v>36</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1061,16 +1089,16 @@
         <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1078,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1090,16 +1118,16 @@
         <v>36</v>
       </c>
       <c r="G17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1107,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1119,16 +1147,16 @@
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1148,16 +1176,16 @@
         <v>40</v>
       </c>
       <c r="G19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1177,16 +1205,16 @@
         <v>43</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1194,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1206,16 +1234,16 @@
         <v>43</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1223,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1235,16 +1263,16 @@
         <v>47</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1264,16 +1292,16 @@
         <v>49</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1281,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1293,16 +1321,16 @@
         <v>49</v>
       </c>
       <c r="G24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1310,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1322,16 +1350,16 @@
         <v>52</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1339,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1351,16 +1379,16 @@
         <v>52</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1368,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1380,16 +1408,16 @@
         <v>56</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1397,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1409,16 +1437,16 @@
         <v>56</v>
       </c>
       <c r="G28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1438,16 +1466,16 @@
         <v>56</v>
       </c>
       <c r="G29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -1455,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1467,16 +1495,16 @@
         <v>60</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -1484,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1496,16 +1524,16 @@
         <v>62</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1525,16 +1553,16 @@
         <v>62</v>
       </c>
       <c r="G32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1554,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1571,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1583,16 +1611,16 @@
         <v>66</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -1612,16 +1640,16 @@
         <v>66</v>
       </c>
       <c r="G35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1629,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -1641,16 +1669,16 @@
         <v>70</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -1658,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -1670,16 +1698,16 @@
         <v>72</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1687,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -1699,16 +1727,16 @@
         <v>74</v>
       </c>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -1716,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -1728,16 +1756,16 @@
         <v>74</v>
       </c>
       <c r="G39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1745,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -1757,16 +1785,16 @@
         <v>78</v>
       </c>
       <c r="G40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -1774,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -1786,16 +1814,16 @@
         <v>78</v>
       </c>
       <c r="G41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1803,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -1815,16 +1843,16 @@
         <v>81</v>
       </c>
       <c r="G42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1832,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -1844,16 +1872,16 @@
         <v>83</v>
       </c>
       <c r="G43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1861,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -1873,16 +1901,16 @@
         <v>86</v>
       </c>
       <c r="G44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -1902,16 +1930,16 @@
         <v>86</v>
       </c>
       <c r="G45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I45" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1919,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -1931,16 +1959,16 @@
         <v>89</v>
       </c>
       <c r="G46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1948,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -1960,16 +1988,16 @@
         <v>92</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -1977,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -1989,16 +2017,16 @@
         <v>92</v>
       </c>
       <c r="G48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I48" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -2006,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -2018,16 +2046,16 @@
         <v>95</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -2035,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2047,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="G50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I50" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -2064,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -2076,16 +2104,16 @@
         <v>98</v>
       </c>
       <c r="G51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -2093,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2105,16 +2133,16 @@
         <v>98</v>
       </c>
       <c r="G52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I52" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -2122,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -2134,16 +2162,16 @@
         <v>98</v>
       </c>
       <c r="G53" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H53" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I53" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -2151,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -2163,16 +2191,16 @@
         <v>103</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
@@ -2180,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -2192,16 +2220,16 @@
         <v>105</v>
       </c>
       <c r="G55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2209,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -2221,16 +2249,16 @@
         <v>105</v>
       </c>
       <c r="G56" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -2238,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -2250,16 +2278,16 @@
         <v>105</v>
       </c>
       <c r="G57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -2267,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -2279,16 +2307,16 @@
         <v>105</v>
       </c>
       <c r="G58" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I58" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
@@ -2296,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -2308,16 +2336,16 @@
         <v>105</v>
       </c>
       <c r="G59" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2325,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -2337,16 +2365,16 @@
         <v>105</v>
       </c>
       <c r="G60" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H60" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="I60" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -2354,7 +2382,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -2366,16 +2394,16 @@
         <v>111</v>
       </c>
       <c r="G61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
@@ -2383,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
@@ -2395,16 +2423,18 @@
         <v>111</v>
       </c>
       <c r="G62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I62" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>